--- a/biology/Botanique/Worcester_Pearmain/Worcester_Pearmain.xlsx
+++ b/biology/Botanique/Worcester_Pearmain/Worcester_Pearmain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Worcester Pearmain est un cultivar de pommier domestique.
 </t>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cultivar obtenu à Worcester dans le Worcestershire (Angleterre), en 1873[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cultivar obtenu à Worcester dans le Worcestershire (Angleterre), en 1873.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Worcester Pearmain Obtentention de Mr Hale de Swan Pool près de Worcester.Semi de Devonshire quarrenden . Introduite en 1874 par Mr Smith de Worcester. En 1875 elle reçoit le "first class certificate" de la RHS Sa peau est presque entièrement de couleur rouge, parfois lavée de jaune et présentant des lenticelles de couleur jaune à fauve, de taille moyenne à petite. Sa chair est blanc-crème, juteuse, acidulée et de goût très agréable. Elle peut être légèrement teintée de rouge sous la peau C'était autrefois l'une des pommes les plus appréciées en Angleterre pour sa précocité[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Worcester Pearmain Obtentention de Mr Hale de Swan Pool près de Worcester.Semi de Devonshire quarrenden . Introduite en 1874 par Mr Smith de Worcester. En 1875 elle reçoit le "first class certificate" de la RHS Sa peau est presque entièrement de couleur rouge, parfois lavée de jaune et présentant des lenticelles de couleur jaune à fauve, de taille moyenne à petite. Sa chair est blanc-crème, juteuse, acidulée et de goût très agréable. Elle peut être légèrement teintée de rouge sous la peau C'était autrefois l'une des pommes les plus appréciées en Angleterre pour sa précocité.
 Calibre: moyen.
 Chair: blanche, sucrée, croquante et juteuse.
 Goût particulier: connue pour son goût de fraise.</t>
@@ -575,9 +591,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Worcester Pearmain est une pomme à croquer[3]. Elle est aussi bonne à cuire.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Worcester Pearmain est une pomme à croquer. Elle est aussi bonne à cuire.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Descendants:
 Lord Lambourne
@@ -638,10 +658,12 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Floraison: groupe de pollinisation C, 1 jour avant la 'Golden Delicious' du début du groupe D.
-S-génotype: S2S24 [4].
+S-génotype: S2S24 .
 Sources: la variété est pollinisée par Melrose (S9S19), Ingrid Marie (S5S7), Blenheim Orange, Cox's Orange Pippin, Discovery, Egremont Russet, James Grieve, Spartan et Sunset.</t>
         </is>
       </c>
@@ -670,7 +692,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Hauteur en fonction du porte-greffe choisi: MM111: 5 à 6m, MM106: 4 à 6m, M26: 3 à 4m, M9: 2 à 3m.
 Maturité: septembre.
